--- a/test 2.xlsx
+++ b/test 2.xlsx
@@ -358,7 +358,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
